--- a/hasil/2023_01_lipa_12.xlsx
+++ b/hasil/2023_01_lipa_12.xlsx
@@ -88,13 +88,13 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 29 Mei 2023</t>
+    <t>Ternate , 17 Juli 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
   </si>
   <si>
-    <t>Panitera,</t>
+    <t xml:space="preserve">Panitera, </t>
   </si>
   <si>
     <t>Drs. Djabir Sasole, M.H</t>
@@ -381,8 +381,8 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
   </cellXfs>

--- a/hasil/2023_01_lipa_12.xlsx
+++ b/hasil/2023_01_lipa_12.xlsx
@@ -88,7 +88,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 17 Juli 2023</t>
+    <t>Ternate , 02 Agustus 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>

--- a/hasil/2023_01_lipa_12.xlsx
+++ b/hasil/2023_01_lipa_12.xlsx
@@ -88,7 +88,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 02 Agustus 2023</t>
+    <t>Ternate , 06 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
